--- a/thresholds/IGCSE/french-foreign-language/french-foreign-language-thresholds.xlsx
+++ b/thresholds/IGCSE/french-foreign-language/french-foreign-language-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,36 +493,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,36 +534,36 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>200</v>
       </c>
       <c r="C3" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E3" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F3" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -575,20 +575,20 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" t="n">
         <v>98</v>
@@ -600,11 +600,11 @@
         <v>66</v>
       </c>
       <c r="I4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -616,77 +616,77 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" t="n">
         <v>139</v>
       </c>
       <c r="E5" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H5" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F6" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -739,89 +739,89 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D8" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E8" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D9" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -866,78 +866,78 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D11" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E11" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F11" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H11" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I11" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D12" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E12" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12" t="n">
         <v>51</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
@@ -948,73 +948,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" t="n">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E13" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G13" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H13" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I13" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G14" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H14" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I14" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1033,13 +1033,13 @@
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E15" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" t="n">
         <v>96</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -1074,19 +1074,19 @@
         <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D16" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E16" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F16" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" t="n">
         <v>69</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -1115,10 +1115,10 @@
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D17" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" t="n">
         <v>123</v>
@@ -1142,115 +1142,115 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H18" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I18" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H19" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I19" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" t="n">
         <v>122</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="n">
         <v>69</v>
@@ -1265,251 +1265,497 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D21" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E21" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F21" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G21" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H21" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I21" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C22" t="n">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="D22" t="n">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G22" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H22" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I22" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>200</v>
       </c>
       <c r="C23" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D23" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E23" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" t="n">
         <v>84</v>
       </c>
       <c r="H23" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" t="n">
         <v>53</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D24" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G24" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H24" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D25" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E25" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H25" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I25" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Y 03,12,22,42</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>200</v>
+      </c>
+      <c r="C26" t="n">
+        <v>162</v>
+      </c>
+      <c r="D26" t="n">
+        <v>139</v>
+      </c>
+      <c r="E26" t="n">
+        <v>116</v>
+      </c>
+      <c r="F26" t="n">
+        <v>93</v>
+      </c>
+      <c r="G26" t="n">
+        <v>78</v>
+      </c>
+      <c r="H26" t="n">
+        <v>63</v>
+      </c>
+      <c r="I26" t="n">
+        <v>48</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Y 03,12,22,42</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>200</v>
+      </c>
+      <c r="C27" t="n">
+        <v>168</v>
+      </c>
+      <c r="D27" t="n">
+        <v>144</v>
+      </c>
+      <c r="E27" t="n">
+        <v>120</v>
+      </c>
+      <c r="F27" t="n">
+        <v>96</v>
+      </c>
+      <c r="G27" t="n">
+        <v>81</v>
+      </c>
+      <c r="H27" t="n">
+        <v>66</v>
+      </c>
+      <c r="I27" t="n">
+        <v>51</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Y 03,12,22,42</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>200</v>
+      </c>
+      <c r="C28" t="n">
+        <v>168</v>
+      </c>
+      <c r="D28" t="n">
+        <v>145</v>
+      </c>
+      <c r="E28" t="n">
+        <v>122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>84</v>
+      </c>
+      <c r="H28" t="n">
+        <v>68</v>
+      </c>
+      <c r="I28" t="n">
+        <v>53</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>90</v>
+      </c>
+      <c r="C29" t="n">
+        <v>78</v>
+      </c>
+      <c r="D29" t="n">
+        <v>69</v>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="n">
+        <v>51</v>
+      </c>
+      <c r="G29" t="n">
+        <v>42</v>
+      </c>
+      <c r="H29" t="n">
+        <v>33</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>X 03,11,21,41</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>200</v>
+      </c>
+      <c r="C30" t="n">
+        <v>166</v>
+      </c>
+      <c r="D30" t="n">
+        <v>143</v>
+      </c>
+      <c r="E30" t="n">
+        <v>120</v>
+      </c>
+      <c r="F30" t="n">
+        <v>97</v>
+      </c>
+      <c r="G30" t="n">
+        <v>81</v>
+      </c>
+      <c r="H30" t="n">
+        <v>66</v>
+      </c>
+      <c r="I30" t="n">
+        <v>51</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Y 03,12,22,42</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>200</v>
+      </c>
+      <c r="C31" t="n">
+        <v>165</v>
+      </c>
+      <c r="D31" t="n">
+        <v>142</v>
+      </c>
+      <c r="E31" t="n">
+        <v>119</v>
+      </c>
+      <c r="F31" t="n">
+        <v>97</v>
+      </c>
+      <c r="G31" t="n">
+        <v>81</v>
+      </c>
+      <c r="H31" t="n">
+        <v>66</v>
+      </c>
+      <c r="I31" t="n">
+        <v>51</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>Z 03,13,23,43</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>200</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+      <c r="C32" t="n">
         <v>165</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>142</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E32" t="n">
         <v>119</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F32" t="n">
         <v>97</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G32" t="n">
         <v>81</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>66</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>51</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
